--- a/Seekfree_RT1064_Opensource_Library/Projecct/RT1064核心板丝印与芯片引脚对应表格.xlsx
+++ b/Seekfree_RT1064_Opensource_Library/Projecct/RT1064核心板丝印与芯片引脚对应表格.xlsx
@@ -816,10 +816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RT1062 没有端口A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E端口被SDRAM占用因此全部未引出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,6 +829,10 @@
   </si>
   <si>
     <t>GPIO_SD_B1_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT1064 没有端口A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -1293,7 +1293,7 @@
         <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1304,7 +1304,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1315,7 +1315,7 @@
         <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1326,7 +1326,7 @@
         <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1337,7 +1337,7 @@
         <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1809,7 +1809,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -1828,7 +1828,7 @@
         <v>176</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -1839,7 +1839,7 @@
         <v>177</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -1850,7 +1850,7 @@
         <v>178</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -1861,7 +1861,7 @@
         <v>179</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -1872,7 +1872,7 @@
         <v>180</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -1883,7 +1883,7 @@
         <v>181</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -1894,7 +1894,7 @@
         <v>182</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -1953,7 +1953,7 @@
         <v>218</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -1964,7 +1964,7 @@
         <v>158</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -1975,7 +1975,7 @@
         <v>159</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -1986,7 +1986,7 @@
         <v>160</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -1997,7 +1997,7 @@
         <v>161</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -2008,7 +2008,7 @@
         <v>162</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -2019,7 +2019,7 @@
         <v>163</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -2030,7 +2030,7 @@
         <v>164</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -2089,7 +2089,7 @@
         <v>223</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -2100,7 +2100,7 @@
         <v>127</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -2111,7 +2111,7 @@
         <v>128</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -2122,7 +2122,7 @@
         <v>129</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
@@ -2133,7 +2133,7 @@
         <v>130</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -2144,7 +2144,7 @@
         <v>131</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
@@ -2155,7 +2155,7 @@
         <v>132</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -2166,7 +2166,7 @@
         <v>133</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -2177,7 +2177,7 @@
         <v>134</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -2188,7 +2188,7 @@
         <v>135</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -2199,7 +2199,7 @@
         <v>136</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -2221,7 +2221,7 @@
         <v>138</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -2232,7 +2232,7 @@
         <v>139</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -2243,7 +2243,7 @@
         <v>140</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -2254,7 +2254,7 @@
         <v>141</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -2265,7 +2265,7 @@
         <v>142</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -2276,7 +2276,7 @@
         <v>143</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -2287,7 +2287,7 @@
         <v>144</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -2298,7 +2298,7 @@
         <v>145</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -2309,7 +2309,7 @@
         <v>146</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -2320,7 +2320,7 @@
         <v>147</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -2331,7 +2331,7 @@
         <v>148</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -2342,7 +2342,7 @@
         <v>149</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -2353,7 +2353,7 @@
         <v>150</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -2364,7 +2364,7 @@
         <v>151</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -2375,7 +2375,7 @@
         <v>152</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -2386,7 +2386,7 @@
         <v>153</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -2397,7 +2397,7 @@
         <v>154</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -2408,7 +2408,7 @@
         <v>155</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -2419,7 +2419,7 @@
         <v>156</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -2430,7 +2430,7 @@
         <v>157</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -2441,7 +2441,7 @@
         <v>256</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -2452,7 +2452,7 @@
         <v>258</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -2463,7 +2463,7 @@
         <v>259</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
